--- a/All_Applicant_Total_Data.xlsx
+++ b/All_Applicant_Total_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA2E002-8A25-4E8C-876A-41BA0FB465DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D08A96-E97D-4573-947A-D0E673BC4463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="527">
   <si>
     <t>org_id</t>
   </si>
@@ -1568,6 +1568,39 @@
   </si>
   <si>
     <t>Suleman Nagar</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>A/C Opening Date</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Employment Type</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Self-Employed</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Widowed</t>
+  </si>
+  <si>
+    <t>Salaried</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Married</t>
   </si>
 </sst>
 </file>
@@ -1629,17 +1662,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1650,6 +1694,34 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E31C54D-4EEB-421D-BF5D-BA363125596C}" name="Table1" displayName="Table1" ref="A1:S102" totalsRowShown="0">
+  <autoFilter ref="A1:S102" xr:uid="{6E31C54D-4EEB-421D-BF5D-BA363125596C}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{30CA2C92-25B7-42B7-8C10-EAC3D4344353}" name="org_id"/>
+    <tableColumn id="2" xr3:uid="{D0600C6F-A4A1-4F19-99AF-BF51810E0236}" name="full_name"/>
+    <tableColumn id="3" xr3:uid="{FBC01725-F712-4846-BA18-E1DF883D6C4E}" name="date_of_birth" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9BE714B2-FBCB-4261-B4B4-1F3882B02D83}" name="gender"/>
+    <tableColumn id="5" xr3:uid="{95341169-08A5-43A6-954D-37DDF661B294}" name="aadhar_last_four_digits"/>
+    <tableColumn id="6" xr3:uid="{25B0B738-B9AE-48FB-ADFD-CA2C49926632}" name="avg_income"/>
+    <tableColumn id="7" xr3:uid="{646FA9BB-5B73-4E16-A3A4-449722AD139A}" name="account_type"/>
+    <tableColumn id="8" xr3:uid="{F94E9A43-1C64-4AA5-87DE-6978EE2DA2B7}" name="balance"/>
+    <tableColumn id="9" xr3:uid="{C2F00C55-5DE2-4CFB-8F66-824120EC8B5E}" name="loan_status"/>
+    <tableColumn id="10" xr3:uid="{4A215419-3C93-4110-BA39-3A7A0537AF70}" name="credit_score"/>
+    <tableColumn id="11" xr3:uid="{EADD0EEF-37CE-4FC4-93D2-CB581CB91B54}" name="category"/>
+    <tableColumn id="12" xr3:uid="{D73C72A6-E2C6-4852-99E5-C30EEBE56FBD}" name="taluka"/>
+    <tableColumn id="13" xr3:uid="{1BC893C7-AEF7-46A6-AC69-57F2E69A79BD}" name="village"/>
+    <tableColumn id="14" xr3:uid="{7C2FB3C0-B789-4808-AA1A-EA467D63E51F}" name="ifsc_code"/>
+    <tableColumn id="15" xr3:uid="{7581703D-DEC1-4678-850A-337B98552BB2}" name="status"/>
+    <tableColumn id="16" xr3:uid="{5804563C-C01B-4481-81DE-588E85AC2B8A}" name="Account Number"/>
+    <tableColumn id="17" xr3:uid="{FA7610D9-79BA-43BD-8E10-0EC7D3AB87FB}" name="A/C Opening Date" dataDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{15D6EE63-C77F-4182-946E-7517D638CF46}" name="Marital Status"/>
+    <tableColumn id="19" xr3:uid="{3E69B510-07B0-468C-9700-1CE0315EFA15}" name="Employment Type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1939,32 +2011,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="143" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="E64" zoomScale="81" workbookViewId="0">
+      <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
     <col min="12" max="12" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="21.5546875" customWidth="1"/>
+    <col min="18" max="18" width="19.109375" customWidth="1"/>
+    <col min="19" max="19" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2010,8 +2086,20 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>517</v>
+      </c>
+      <c r="R1" t="s">
+        <v>518</v>
+      </c>
+      <c r="S1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2057,8 +2145,20 @@
       <c r="O2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>5767663693</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>44890</v>
+      </c>
+      <c r="R2" t="s">
+        <v>520</v>
+      </c>
+      <c r="S2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2104,8 +2204,20 @@
       <c r="O3" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>1563179899</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>42257</v>
+      </c>
+      <c r="R3" t="s">
+        <v>520</v>
+      </c>
+      <c r="S3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2151,8 +2263,20 @@
       <c r="O4" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>9618512661</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>41891</v>
+      </c>
+      <c r="R4" t="s">
+        <v>523</v>
+      </c>
+      <c r="S4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2198,8 +2322,20 @@
       <c r="O5" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>7511402372</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>41884</v>
+      </c>
+      <c r="R5" t="s">
+        <v>523</v>
+      </c>
+      <c r="S5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2245,8 +2381,20 @@
       <c r="O6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>5158218071</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>43178</v>
+      </c>
+      <c r="R6" t="s">
+        <v>520</v>
+      </c>
+      <c r="S6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2292,8 +2440,20 @@
       <c r="O7" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>7317894087</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>43934</v>
+      </c>
+      <c r="R7" t="s">
+        <v>520</v>
+      </c>
+      <c r="S7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2339,8 +2499,20 @@
       <c r="O8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>1965107742</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>43328</v>
+      </c>
+      <c r="R8" t="s">
+        <v>520</v>
+      </c>
+      <c r="S8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2386,8 +2558,20 @@
       <c r="O9" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>8507097285</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>42200</v>
+      </c>
+      <c r="R9" t="s">
+        <v>520</v>
+      </c>
+      <c r="S9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2418,6 +2602,9 @@
       <c r="J10">
         <v>312</v>
       </c>
+      <c r="K10" t="s">
+        <v>223</v>
+      </c>
       <c r="L10" t="s">
         <v>233</v>
       </c>
@@ -2430,8 +2617,20 @@
       <c r="O10" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>7409178920</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>44731</v>
+      </c>
+      <c r="R10" t="s">
+        <v>525</v>
+      </c>
+      <c r="S10" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -2477,8 +2676,20 @@
       <c r="O11" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>3958822965</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>41168</v>
+      </c>
+      <c r="R11" t="s">
+        <v>525</v>
+      </c>
+      <c r="S11" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -2524,8 +2735,20 @@
       <c r="O12" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>8632559972</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>44885</v>
+      </c>
+      <c r="R12" t="s">
+        <v>526</v>
+      </c>
+      <c r="S12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -2571,8 +2794,20 @@
       <c r="O13" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>4483498480</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>45014</v>
+      </c>
+      <c r="R13" t="s">
+        <v>525</v>
+      </c>
+      <c r="S13" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -2618,8 +2853,20 @@
       <c r="O14" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>2878193682</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>40952</v>
+      </c>
+      <c r="R14" t="s">
+        <v>525</v>
+      </c>
+      <c r="S14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -2665,8 +2912,20 @@
       <c r="O15" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>5805473376</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>44540</v>
+      </c>
+      <c r="R15" t="s">
+        <v>525</v>
+      </c>
+      <c r="S15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -2676,6 +2935,9 @@
       <c r="C16" s="2">
         <v>33899</v>
       </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
       <c r="E16" t="s">
         <v>132</v>
       </c>
@@ -2709,8 +2971,20 @@
       <c r="O16" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>6935672344</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>40866</v>
+      </c>
+      <c r="R16" t="s">
+        <v>520</v>
+      </c>
+      <c r="S16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1016</v>
       </c>
@@ -2756,8 +3030,20 @@
       <c r="O17" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>2389994093</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>40661</v>
+      </c>
+      <c r="R17" t="s">
+        <v>525</v>
+      </c>
+      <c r="S17" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -2803,8 +3089,20 @@
       <c r="O18" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>9728507812</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>43789</v>
+      </c>
+      <c r="R18" t="s">
+        <v>526</v>
+      </c>
+      <c r="S18" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -2850,8 +3148,20 @@
       <c r="O19" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>3212743179</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>42375</v>
+      </c>
+      <c r="R19" t="s">
+        <v>525</v>
+      </c>
+      <c r="S19" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -2897,8 +3207,20 @@
       <c r="O20" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <v>3482495730</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>44196</v>
+      </c>
+      <c r="R20" t="s">
+        <v>526</v>
+      </c>
+      <c r="S20" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1020</v>
       </c>
@@ -2944,8 +3266,20 @@
       <c r="O21" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>3440560135</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>42834</v>
+      </c>
+      <c r="R21" t="s">
+        <v>520</v>
+      </c>
+      <c r="S21" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1021</v>
       </c>
@@ -2991,8 +3325,20 @@
       <c r="O22" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>9614483185</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>42451</v>
+      </c>
+      <c r="R22" t="s">
+        <v>520</v>
+      </c>
+      <c r="S22" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1022</v>
       </c>
@@ -3038,8 +3384,20 @@
       <c r="O23" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <v>6224474015</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>40577</v>
+      </c>
+      <c r="R23" t="s">
+        <v>523</v>
+      </c>
+      <c r="S23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1023</v>
       </c>
@@ -3085,8 +3443,20 @@
       <c r="O24" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>7507817481</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>41568</v>
+      </c>
+      <c r="R24" t="s">
+        <v>520</v>
+      </c>
+      <c r="S24" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1024</v>
       </c>
@@ -3132,8 +3502,20 @@
       <c r="O25" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>1060380238</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>43938</v>
+      </c>
+      <c r="R25" t="s">
+        <v>520</v>
+      </c>
+      <c r="S25" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1025</v>
       </c>
@@ -3179,8 +3561,20 @@
       <c r="O26" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <v>3534420724</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>44610</v>
+      </c>
+      <c r="R26" t="s">
+        <v>526</v>
+      </c>
+      <c r="S26" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1026</v>
       </c>
@@ -3226,8 +3620,20 @@
       <c r="O27" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <v>6806276684</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>45124</v>
+      </c>
+      <c r="R27" t="s">
+        <v>526</v>
+      </c>
+      <c r="S27" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1027</v>
       </c>
@@ -3273,8 +3679,20 @@
       <c r="O28" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <v>5715194471</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>44413</v>
+      </c>
+      <c r="R28" t="s">
+        <v>520</v>
+      </c>
+      <c r="S28" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1028</v>
       </c>
@@ -3320,8 +3738,20 @@
       <c r="O29" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <v>2859361705</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>44530</v>
+      </c>
+      <c r="R29" t="s">
+        <v>520</v>
+      </c>
+      <c r="S29" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1029</v>
       </c>
@@ -3367,8 +3797,20 @@
       <c r="O30" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>6720318572</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>44026</v>
+      </c>
+      <c r="R30" t="s">
+        <v>526</v>
+      </c>
+      <c r="S30" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1030</v>
       </c>
@@ -3414,8 +3856,20 @@
       <c r="O31" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>2719376097</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>41747</v>
+      </c>
+      <c r="R31" t="s">
+        <v>525</v>
+      </c>
+      <c r="S31" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1031</v>
       </c>
@@ -3461,8 +3915,20 @@
       <c r="O32" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <v>5584124380</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>41116</v>
+      </c>
+      <c r="R32" t="s">
+        <v>526</v>
+      </c>
+      <c r="S32" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1032</v>
       </c>
@@ -3508,8 +3974,20 @@
       <c r="O33" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <v>9021122691</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>43134</v>
+      </c>
+      <c r="R33" t="s">
+        <v>520</v>
+      </c>
+      <c r="S33" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1033</v>
       </c>
@@ -3555,8 +4033,20 @@
       <c r="O34" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <v>5466853098</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>40732</v>
+      </c>
+      <c r="R34" t="s">
+        <v>526</v>
+      </c>
+      <c r="S34" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1034</v>
       </c>
@@ -3602,8 +4092,20 @@
       <c r="O35" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <v>8731166357</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>40609</v>
+      </c>
+      <c r="R35" t="s">
+        <v>523</v>
+      </c>
+      <c r="S35" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1035</v>
       </c>
@@ -3649,8 +4151,20 @@
       <c r="O36" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <v>3245846912</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>42038</v>
+      </c>
+      <c r="R36" t="s">
+        <v>523</v>
+      </c>
+      <c r="S36" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1036</v>
       </c>
@@ -3696,8 +4210,20 @@
       <c r="O37" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <v>1216501596</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>40778</v>
+      </c>
+      <c r="R37" t="s">
+        <v>526</v>
+      </c>
+      <c r="S37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1037</v>
       </c>
@@ -3743,8 +4269,20 @@
       <c r="O38" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <v>6948416591</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>41323</v>
+      </c>
+      <c r="R38" t="s">
+        <v>523</v>
+      </c>
+      <c r="S38" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1038</v>
       </c>
@@ -3790,8 +4328,20 @@
       <c r="O39" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <v>2888946235</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>44681</v>
+      </c>
+      <c r="R39" t="s">
+        <v>523</v>
+      </c>
+      <c r="S39" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1039</v>
       </c>
@@ -3837,8 +4387,20 @@
       <c r="O40" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <v>2518819640</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>40821</v>
+      </c>
+      <c r="R40" t="s">
+        <v>523</v>
+      </c>
+      <c r="S40" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1040</v>
       </c>
@@ -3884,8 +4446,20 @@
       <c r="O41" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <v>6965910759</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>43945</v>
+      </c>
+      <c r="R41" t="s">
+        <v>526</v>
+      </c>
+      <c r="S41" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1041</v>
       </c>
@@ -3931,8 +4505,20 @@
       <c r="O42" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <v>4168707659</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>42364</v>
+      </c>
+      <c r="R42" t="s">
+        <v>520</v>
+      </c>
+      <c r="S42" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1042</v>
       </c>
@@ -3978,8 +4564,20 @@
       <c r="O43" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <v>7177509054</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>44252</v>
+      </c>
+      <c r="R43" t="s">
+        <v>523</v>
+      </c>
+      <c r="S43" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1043</v>
       </c>
@@ -4025,8 +4623,20 @@
       <c r="O44" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <v>3243312024</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>45004</v>
+      </c>
+      <c r="R44" t="s">
+        <v>525</v>
+      </c>
+      <c r="S44" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1044</v>
       </c>
@@ -4072,8 +4682,20 @@
       <c r="O45" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <v>9448155644</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>40696</v>
+      </c>
+      <c r="R45" t="s">
+        <v>520</v>
+      </c>
+      <c r="S45" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1045</v>
       </c>
@@ -4119,8 +4741,20 @@
       <c r="O46" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <v>2658850507</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>41484</v>
+      </c>
+      <c r="R46" t="s">
+        <v>523</v>
+      </c>
+      <c r="S46" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1046</v>
       </c>
@@ -4166,8 +4800,20 @@
       <c r="O47" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <v>5965251273</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>42068</v>
+      </c>
+      <c r="R47" t="s">
+        <v>526</v>
+      </c>
+      <c r="S47" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1047</v>
       </c>
@@ -4213,8 +4859,20 @@
       <c r="O48" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48">
+        <v>6186078162</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>40564</v>
+      </c>
+      <c r="R48" t="s">
+        <v>523</v>
+      </c>
+      <c r="S48" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1048</v>
       </c>
@@ -4260,8 +4918,20 @@
       <c r="O49" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <v>8163745745</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>42785</v>
+      </c>
+      <c r="R49" t="s">
+        <v>525</v>
+      </c>
+      <c r="S49" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1049</v>
       </c>
@@ -4307,8 +4977,20 @@
       <c r="O50" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <v>9137518528</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>40583</v>
+      </c>
+      <c r="R50" t="s">
+        <v>526</v>
+      </c>
+      <c r="S50" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1050</v>
       </c>
@@ -4354,8 +5036,20 @@
       <c r="O51" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P51">
+        <v>9533644568</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>42872</v>
+      </c>
+      <c r="R51" t="s">
+        <v>525</v>
+      </c>
+      <c r="S51" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1051</v>
       </c>
@@ -4401,8 +5095,20 @@
       <c r="O52" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <v>1857490243</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>42682</v>
+      </c>
+      <c r="R52" t="s">
+        <v>523</v>
+      </c>
+      <c r="S52" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1052</v>
       </c>
@@ -4448,8 +5154,20 @@
       <c r="O53" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P53">
+        <v>6510221903</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>44603</v>
+      </c>
+      <c r="R53" t="s">
+        <v>525</v>
+      </c>
+      <c r="S53" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1053</v>
       </c>
@@ -4495,8 +5213,20 @@
       <c r="O54" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P54">
+        <v>8463621145</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>42936</v>
+      </c>
+      <c r="R54" t="s">
+        <v>523</v>
+      </c>
+      <c r="S54" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1054</v>
       </c>
@@ -4542,8 +5272,20 @@
       <c r="O55" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P55">
+        <v>9095450477</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>43851</v>
+      </c>
+      <c r="R55" t="s">
+        <v>520</v>
+      </c>
+      <c r="S55" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1055</v>
       </c>
@@ -4589,8 +5331,20 @@
       <c r="O56" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P56">
+        <v>4151804803</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>40710</v>
+      </c>
+      <c r="R56" t="s">
+        <v>520</v>
+      </c>
+      <c r="S56" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1056</v>
       </c>
@@ -4636,8 +5390,20 @@
       <c r="O57" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P57">
+        <v>2867571060</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>45075</v>
+      </c>
+      <c r="R57" t="s">
+        <v>523</v>
+      </c>
+      <c r="S57" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1057</v>
       </c>
@@ -4683,8 +5449,20 @@
       <c r="O58" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P58">
+        <v>4025636503</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>42847</v>
+      </c>
+      <c r="R58" t="s">
+        <v>520</v>
+      </c>
+      <c r="S58" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1058</v>
       </c>
@@ -4730,8 +5508,20 @@
       <c r="O59" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59">
+        <v>1582438187</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>42492</v>
+      </c>
+      <c r="R59" t="s">
+        <v>525</v>
+      </c>
+      <c r="S59" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1059</v>
       </c>
@@ -4777,8 +5567,20 @@
       <c r="O60" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60">
+        <v>9374530816</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>43214</v>
+      </c>
+      <c r="R60" t="s">
+        <v>523</v>
+      </c>
+      <c r="S60" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1060</v>
       </c>
@@ -4824,8 +5626,20 @@
       <c r="O61" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61">
+        <v>9300513884</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>44165</v>
+      </c>
+      <c r="R61" t="s">
+        <v>520</v>
+      </c>
+      <c r="S61" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1061</v>
       </c>
@@ -4871,8 +5685,20 @@
       <c r="O62" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62">
+        <v>8562671554</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>41868</v>
+      </c>
+      <c r="R62" t="s">
+        <v>520</v>
+      </c>
+      <c r="S62" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1062</v>
       </c>
@@ -4918,8 +5744,20 @@
       <c r="O63" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63">
+        <v>9434815526</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>42061</v>
+      </c>
+      <c r="R63" t="s">
+        <v>526</v>
+      </c>
+      <c r="S63" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1063</v>
       </c>
@@ -4965,8 +5803,20 @@
       <c r="O64" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64">
+        <v>9995019209</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>43591</v>
+      </c>
+      <c r="R64" t="s">
+        <v>520</v>
+      </c>
+      <c r="S64" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1064</v>
       </c>
@@ -5012,8 +5862,20 @@
       <c r="O65" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P65">
+        <v>1313925400</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>41495</v>
+      </c>
+      <c r="R65" t="s">
+        <v>520</v>
+      </c>
+      <c r="S65" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1065</v>
       </c>
@@ -5059,8 +5921,20 @@
       <c r="O66" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P66">
+        <v>6495823489</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>45097</v>
+      </c>
+      <c r="R66" t="s">
+        <v>525</v>
+      </c>
+      <c r="S66" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1066</v>
       </c>
@@ -5106,8 +5980,20 @@
       <c r="O67" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P67">
+        <v>7805737568</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>41518</v>
+      </c>
+      <c r="R67" t="s">
+        <v>520</v>
+      </c>
+      <c r="S67" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1067</v>
       </c>
@@ -5153,8 +6039,20 @@
       <c r="O68" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P68">
+        <v>1038653008</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>42242</v>
+      </c>
+      <c r="R68" t="s">
+        <v>526</v>
+      </c>
+      <c r="S68" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1068</v>
       </c>
@@ -5200,8 +6098,20 @@
       <c r="O69" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P69">
+        <v>8385745051</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>41377</v>
+      </c>
+      <c r="R69" t="s">
+        <v>525</v>
+      </c>
+      <c r="S69" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1069</v>
       </c>
@@ -5247,8 +6157,20 @@
       <c r="O70" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P70">
+        <v>4014226466</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>43318</v>
+      </c>
+      <c r="R70" t="s">
+        <v>526</v>
+      </c>
+      <c r="S70" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1070</v>
       </c>
@@ -5294,8 +6216,20 @@
       <c r="O71" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P71">
+        <v>9934593128</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>41335</v>
+      </c>
+      <c r="R71" t="s">
+        <v>520</v>
+      </c>
+      <c r="S71" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1071</v>
       </c>
@@ -5341,8 +6275,20 @@
       <c r="O72" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P72">
+        <v>3761828041</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>42845</v>
+      </c>
+      <c r="R72" t="s">
+        <v>526</v>
+      </c>
+      <c r="S72" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1072</v>
       </c>
@@ -5388,8 +6334,20 @@
       <c r="O73" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P73">
+        <v>2380550754</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>44488</v>
+      </c>
+      <c r="R73" t="s">
+        <v>520</v>
+      </c>
+      <c r="S73" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1073</v>
       </c>
@@ -5435,8 +6393,20 @@
       <c r="O74" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P74">
+        <v>8669149355</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>43503</v>
+      </c>
+      <c r="R74" t="s">
+        <v>525</v>
+      </c>
+      <c r="S74" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1074</v>
       </c>
@@ -5482,8 +6452,20 @@
       <c r="O75" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P75">
+        <v>1570009986</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>43030</v>
+      </c>
+      <c r="R75" t="s">
+        <v>520</v>
+      </c>
+      <c r="S75" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1075</v>
       </c>
@@ -5529,8 +6511,20 @@
       <c r="O76" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P76">
+        <v>4296248565</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>44491</v>
+      </c>
+      <c r="R76" t="s">
+        <v>526</v>
+      </c>
+      <c r="S76" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1076</v>
       </c>
@@ -5576,8 +6570,20 @@
       <c r="O77" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P77">
+        <v>3142541087</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>42029</v>
+      </c>
+      <c r="R77" t="s">
+        <v>523</v>
+      </c>
+      <c r="S77" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1077</v>
       </c>
@@ -5623,8 +6629,20 @@
       <c r="O78" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P78">
+        <v>8068787529</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>43253</v>
+      </c>
+      <c r="R78" t="s">
+        <v>520</v>
+      </c>
+      <c r="S78" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1078</v>
       </c>
@@ -5670,8 +6688,20 @@
       <c r="O79" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P79">
+        <v>7028826131</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>44375</v>
+      </c>
+      <c r="R79" t="s">
+        <v>526</v>
+      </c>
+      <c r="S79" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1079</v>
       </c>
@@ -5717,8 +6747,20 @@
       <c r="O80" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P80">
+        <v>1695866040</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>42163</v>
+      </c>
+      <c r="R80" t="s">
+        <v>520</v>
+      </c>
+      <c r="S80" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1080</v>
       </c>
@@ -5764,8 +6806,20 @@
       <c r="O81" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P81">
+        <v>4054603684</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>41126</v>
+      </c>
+      <c r="R81" t="s">
+        <v>526</v>
+      </c>
+      <c r="S81" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1081</v>
       </c>
@@ -5811,8 +6865,20 @@
       <c r="O82" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P82">
+        <v>8971951077</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>44420</v>
+      </c>
+      <c r="R82" t="s">
+        <v>526</v>
+      </c>
+      <c r="S82" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1082</v>
       </c>
@@ -5858,8 +6924,20 @@
       <c r="O83" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P83">
+        <v>1106834787</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>44812</v>
+      </c>
+      <c r="R83" t="s">
+        <v>520</v>
+      </c>
+      <c r="S83" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1083</v>
       </c>
@@ -5905,8 +6983,20 @@
       <c r="O84" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P84">
+        <v>1107473817</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>41487</v>
+      </c>
+      <c r="R84" t="s">
+        <v>526</v>
+      </c>
+      <c r="S84" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1084</v>
       </c>
@@ -5952,8 +7042,20 @@
       <c r="O85" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P85">
+        <v>8331598058</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>41196</v>
+      </c>
+      <c r="R85" t="s">
+        <v>523</v>
+      </c>
+      <c r="S85" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1085</v>
       </c>
@@ -5999,8 +7101,20 @@
       <c r="O86" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P86">
+        <v>8254179357</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>45081</v>
+      </c>
+      <c r="R86" t="s">
+        <v>526</v>
+      </c>
+      <c r="S86" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1086</v>
       </c>
@@ -6046,8 +7160,20 @@
       <c r="O87" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P87">
+        <v>9932817859</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>43047</v>
+      </c>
+      <c r="R87" t="s">
+        <v>525</v>
+      </c>
+      <c r="S87" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1087</v>
       </c>
@@ -6093,8 +7219,20 @@
       <c r="O88" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P88">
+        <v>8574479218</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>41093</v>
+      </c>
+      <c r="R88" t="s">
+        <v>525</v>
+      </c>
+      <c r="S88" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1088</v>
       </c>
@@ -6140,8 +7278,20 @@
       <c r="O89" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P89">
+        <v>6816349991</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>44282</v>
+      </c>
+      <c r="R89" t="s">
+        <v>520</v>
+      </c>
+      <c r="S89" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1089</v>
       </c>
@@ -6187,8 +7337,20 @@
       <c r="O90" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P90">
+        <v>2885981737</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>42906</v>
+      </c>
+      <c r="R90" t="s">
+        <v>525</v>
+      </c>
+      <c r="S90" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1090</v>
       </c>
@@ -6234,8 +7396,20 @@
       <c r="O91" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P91">
+        <v>5880010373</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>41180</v>
+      </c>
+      <c r="R91" t="s">
+        <v>523</v>
+      </c>
+      <c r="S91" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1091</v>
       </c>
@@ -6248,6 +7422,9 @@
       <c r="D92" t="s">
         <v>115</v>
       </c>
+      <c r="E92" s="3">
+        <v>5664</v>
+      </c>
       <c r="F92">
         <v>96672</v>
       </c>
@@ -6278,8 +7455,20 @@
       <c r="O92" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P92">
+        <v>9753344291</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>44316</v>
+      </c>
+      <c r="R92" t="s">
+        <v>523</v>
+      </c>
+      <c r="S92" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1092</v>
       </c>
@@ -6325,8 +7514,20 @@
       <c r="O93" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P93">
+        <v>3531130008</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>43889</v>
+      </c>
+      <c r="R93" t="s">
+        <v>520</v>
+      </c>
+      <c r="S93" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1093</v>
       </c>
@@ -6372,8 +7573,20 @@
       <c r="O94" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P94">
+        <v>6029598978</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>41552</v>
+      </c>
+      <c r="R94" t="s">
+        <v>525</v>
+      </c>
+      <c r="S94" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1094</v>
       </c>
@@ -6419,8 +7632,20 @@
       <c r="O95" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P95">
+        <v>3544694532</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>45073</v>
+      </c>
+      <c r="R95" t="s">
+        <v>525</v>
+      </c>
+      <c r="S95" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1095</v>
       </c>
@@ -6466,8 +7691,20 @@
       <c r="O96" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P96">
+        <v>7017244959</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>41109</v>
+      </c>
+      <c r="R96" t="s">
+        <v>526</v>
+      </c>
+      <c r="S96" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1096</v>
       </c>
@@ -6513,8 +7750,20 @@
       <c r="O97" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P97">
+        <v>2366126046</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>44924</v>
+      </c>
+      <c r="R97" t="s">
+        <v>523</v>
+      </c>
+      <c r="S97" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1097</v>
       </c>
@@ -6560,8 +7809,20 @@
       <c r="O98" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P98">
+        <v>8923939027</v>
+      </c>
+      <c r="Q98" s="4">
+        <v>41773</v>
+      </c>
+      <c r="R98" t="s">
+        <v>525</v>
+      </c>
+      <c r="S98" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1098</v>
       </c>
@@ -6607,8 +7868,20 @@
       <c r="O99" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P99">
+        <v>7424266223</v>
+      </c>
+      <c r="Q99" s="4">
+        <v>45138</v>
+      </c>
+      <c r="R99" t="s">
+        <v>520</v>
+      </c>
+      <c r="S99" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1099</v>
       </c>
@@ -6654,8 +7927,20 @@
       <c r="O100" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P100">
+        <v>5187407458</v>
+      </c>
+      <c r="Q100" s="4">
+        <v>41944</v>
+      </c>
+      <c r="R100" t="s">
+        <v>523</v>
+      </c>
+      <c r="S100" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1100</v>
       </c>
@@ -6701,8 +7986,20 @@
       <c r="O101" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P101">
+        <v>5311041373</v>
+      </c>
+      <c r="Q101" s="4">
+        <v>43374</v>
+      </c>
+      <c r="R101" t="s">
+        <v>525</v>
+      </c>
+      <c r="S101" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1100</v>
       </c>
@@ -6751,5 +8048,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>